--- a/Code/Results/Cases/Case_5_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_212/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83831150217408</v>
+        <v>17.30599947411286</v>
       </c>
       <c r="C2">
-        <v>19.04964428315373</v>
+        <v>14.91255542715784</v>
       </c>
       <c r="D2">
-        <v>2.617782393731</v>
+        <v>6.003839878556669</v>
       </c>
       <c r="E2">
-        <v>6.535176522632515</v>
+        <v>11.5185608246296</v>
       </c>
       <c r="F2">
-        <v>43.02831529323021</v>
+        <v>47.21339889380268</v>
       </c>
       <c r="I2">
-        <v>26.21054848405234</v>
+        <v>30.92631245887682</v>
       </c>
       <c r="J2">
-        <v>5.962464812532753</v>
+        <v>9.994734767596626</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.29003788574884</v>
+        <v>19.22609602362527</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.34438193035551</v>
+        <v>16.95595404734549</v>
       </c>
       <c r="C3">
-        <v>17.68871933796322</v>
+        <v>14.54505901709167</v>
       </c>
       <c r="D3">
-        <v>2.591625751554314</v>
+        <v>6.007956793367978</v>
       </c>
       <c r="E3">
-        <v>6.51796948697451</v>
+        <v>11.54033031234061</v>
       </c>
       <c r="F3">
-        <v>41.33285475536274</v>
+        <v>46.95490457852213</v>
       </c>
       <c r="I3">
-        <v>25.50903995685</v>
+        <v>30.84837308729013</v>
       </c>
       <c r="J3">
-        <v>5.980138926098021</v>
+        <v>10.01472407255188</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.54312571953017</v>
+        <v>19.14821252242034</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3812256712804</v>
+        <v>16.74316502880957</v>
       </c>
       <c r="C4">
-        <v>16.85667729500084</v>
+        <v>14.31988694452889</v>
       </c>
       <c r="D4">
-        <v>2.576378827476525</v>
+        <v>6.010771525705295</v>
       </c>
       <c r="E4">
-        <v>6.510357643091541</v>
+        <v>11.55504241591286</v>
       </c>
       <c r="F4">
-        <v>40.30317121665496</v>
+        <v>46.80737778198909</v>
       </c>
       <c r="I4">
-        <v>25.09485124175442</v>
+        <v>30.80705852837144</v>
       </c>
       <c r="J4">
-        <v>5.993487403322965</v>
+        <v>10.02803715559503</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.07832416035464</v>
+        <v>19.10509357052726</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.97701794145705</v>
+        <v>16.65712767487063</v>
       </c>
       <c r="C5">
-        <v>16.50969041790772</v>
+        <v>14.22840015692857</v>
       </c>
       <c r="D5">
-        <v>2.570349692286983</v>
+        <v>6.01199084953917</v>
       </c>
       <c r="E5">
-        <v>6.507977920149815</v>
+        <v>11.56137640673837</v>
       </c>
       <c r="F5">
-        <v>39.88666681022623</v>
+        <v>46.75010596176755</v>
       </c>
       <c r="I5">
-        <v>24.93015827493054</v>
+        <v>30.79186855151262</v>
       </c>
       <c r="J5">
-        <v>5.999532741560449</v>
+        <v>10.03372386056413</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.88755296655494</v>
+        <v>19.08871772725796</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.90918726230283</v>
+        <v>16.64288610416648</v>
       </c>
       <c r="C6">
-        <v>16.45159643103355</v>
+        <v>14.21322989339755</v>
       </c>
       <c r="D6">
-        <v>2.569359122918037</v>
+        <v>6.012197688344611</v>
       </c>
       <c r="E6">
-        <v>6.507625804253071</v>
+        <v>11.5624486269367</v>
       </c>
       <c r="F6">
-        <v>39.81770216331215</v>
+        <v>46.74076880942176</v>
       </c>
       <c r="I6">
-        <v>24.9030564212549</v>
+        <v>30.78944569143547</v>
       </c>
       <c r="J6">
-        <v>6.000572535514882</v>
+        <v>10.03468393167074</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.85579999726355</v>
+        <v>19.08607108948752</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37582203369157</v>
+        <v>16.74200177964925</v>
       </c>
       <c r="C7">
-        <v>16.85202973264128</v>
+        <v>14.31865181120753</v>
       </c>
       <c r="D7">
-        <v>2.576296796399342</v>
+        <v>6.010787676987773</v>
       </c>
       <c r="E7">
-        <v>6.510322651684391</v>
+        <v>11.55512646654179</v>
       </c>
       <c r="F7">
-        <v>40.29754116989567</v>
+        <v>46.8065938291146</v>
       </c>
       <c r="I7">
-        <v>25.09261365020657</v>
+        <v>30.80684700591408</v>
       </c>
       <c r="J7">
-        <v>5.993566508261702</v>
+        <v>10.0281127894854</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.07575656986624</v>
+        <v>19.10486786354643</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.3326133293751</v>
+        <v>17.18494178462178</v>
       </c>
       <c r="C8">
-        <v>18.58610112331735</v>
+        <v>14.78583557908057</v>
       </c>
       <c r="D8">
-        <v>2.608581766320322</v>
+        <v>6.005199924541205</v>
       </c>
       <c r="E8">
-        <v>6.528617935387258</v>
+        <v>11.52578788036115</v>
       </c>
       <c r="F8">
-        <v>42.44149790330833</v>
+        <v>47.12196869601311</v>
       </c>
       <c r="I8">
-        <v>25.96519271785255</v>
+        <v>30.89808278264799</v>
       </c>
       <c r="J8">
-        <v>5.968026917136739</v>
+        <v>10.00141138196097</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.03389212282103</v>
+        <v>19.19827428401733</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81496480500001</v>
+        <v>18.06457266199407</v>
       </c>
       <c r="C9">
-        <v>21.79493919992958</v>
+        <v>15.69922619141917</v>
       </c>
       <c r="D9">
-        <v>2.67940006146743</v>
+        <v>5.996513010069912</v>
       </c>
       <c r="E9">
-        <v>6.588910758868277</v>
+        <v>11.47891655128442</v>
       </c>
       <c r="F9">
-        <v>46.72862958068342</v>
+        <v>47.82755166858742</v>
       </c>
       <c r="I9">
-        <v>27.81126999388624</v>
+        <v>31.12876371614923</v>
       </c>
       <c r="J9">
-        <v>5.938837988757263</v>
+        <v>9.957293919893145</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.96733989589212</v>
+        <v>19.41810355754414</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.17153112341101</v>
+        <v>18.70981898364645</v>
       </c>
       <c r="C10">
-        <v>23.98747392599932</v>
+        <v>16.36037258554958</v>
       </c>
       <c r="D10">
-        <v>2.73771777424481</v>
+        <v>5.991507554871696</v>
       </c>
       <c r="E10">
-        <v>6.649571884549727</v>
+        <v>11.45096006214995</v>
       </c>
       <c r="F10">
-        <v>49.92643693683122</v>
+        <v>48.39656286102616</v>
       </c>
       <c r="I10">
-        <v>29.25685750881919</v>
+        <v>31.32953448924824</v>
       </c>
       <c r="J10">
-        <v>5.9318017217701</v>
+        <v>9.929900547935738</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.64031354137775</v>
+        <v>19.60099856501484</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.20350990923897</v>
+        <v>19.001593108003</v>
       </c>
       <c r="C11">
-        <v>24.95275780771069</v>
+        <v>16.65740348452559</v>
       </c>
       <c r="D11">
-        <v>2.766077967371906</v>
+        <v>5.989527976062408</v>
       </c>
       <c r="E11">
-        <v>6.681088517487156</v>
+        <v>11.43964472229577</v>
       </c>
       <c r="F11">
-        <v>51.39346880828251</v>
+        <v>48.66579617806121</v>
       </c>
       <c r="I11">
-        <v>29.936154754634</v>
+        <v>31.42757284444667</v>
       </c>
       <c r="J11">
-        <v>5.93215423265634</v>
+        <v>9.918527386380942</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.37320351523233</v>
+        <v>19.68861316026597</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.58889933511514</v>
+        <v>19.11170809485695</v>
       </c>
       <c r="C12">
-        <v>25.31403857786035</v>
+        <v>16.7692249816392</v>
       </c>
       <c r="D12">
-        <v>2.777127439057477</v>
+        <v>5.988821019680985</v>
       </c>
       <c r="E12">
-        <v>6.693621567802325</v>
+        <v>11.43556117523558</v>
       </c>
       <c r="F12">
-        <v>51.95109983093105</v>
+        <v>48.76918395575381</v>
       </c>
       <c r="I12">
-        <v>30.19676497045573</v>
+        <v>31.46565123484238</v>
       </c>
       <c r="J12">
-        <v>5.932839361550296</v>
+        <v>9.914377070873231</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.64695128113782</v>
+        <v>19.72240384149362</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.50613267638784</v>
+        <v>19.08801133884704</v>
       </c>
       <c r="C13">
-        <v>25.23641288280821</v>
+        <v>16.74517330884041</v>
       </c>
       <c r="D13">
-        <v>2.774733115108872</v>
+        <v>5.98897137932624</v>
       </c>
       <c r="E13">
-        <v>6.690895142097513</v>
+        <v>11.4364316911143</v>
       </c>
       <c r="F13">
-        <v>51.83090381964131</v>
+        <v>48.74685469515271</v>
       </c>
       <c r="I13">
-        <v>30.14048294804098</v>
+        <v>31.45740816207829</v>
       </c>
       <c r="J13">
-        <v>5.93266656910888</v>
+        <v>9.915263957717478</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.58815836473202</v>
+        <v>19.71509951321259</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.23532209084717</v>
+        <v>19.01066049279162</v>
       </c>
       <c r="C14">
-        <v>24.98256347899601</v>
+        <v>16.6666169504689</v>
       </c>
       <c r="D14">
-        <v>2.766980502956815</v>
+        <v>5.989468959786437</v>
       </c>
       <c r="E14">
-        <v>6.682107413621463</v>
+        <v>11.43930473333627</v>
       </c>
       <c r="F14">
-        <v>51.43930097327476</v>
+        <v>48.67427354125821</v>
       </c>
       <c r="I14">
-        <v>29.95752595287127</v>
+        <v>31.4306865379181</v>
       </c>
       <c r="J14">
-        <v>5.932199291518181</v>
+        <v>9.918182802027713</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.39579904580429</v>
+        <v>19.69138098503826</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06875123278865</v>
+        <v>18.96322872728169</v>
       </c>
       <c r="C15">
-        <v>24.8265316607997</v>
+        <v>16.6184098151068</v>
       </c>
       <c r="D15">
-        <v>2.762273710406205</v>
+        <v>5.98977929577261</v>
       </c>
       <c r="E15">
-        <v>6.676803700151478</v>
+        <v>11.44109076400672</v>
       </c>
       <c r="F15">
-        <v>51.19971848407798</v>
+        <v>48.63000056772486</v>
       </c>
       <c r="I15">
-        <v>29.84590784534599</v>
+        <v>31.41444257713609</v>
       </c>
       <c r="J15">
-        <v>5.931986205204279</v>
+        <v>9.919991052480723</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.27748943265769</v>
+        <v>19.67693185572226</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10331280265892</v>
+        <v>18.69070505486488</v>
       </c>
       <c r="C16">
-        <v>23.92377414152714</v>
+        <v>16.34087529875226</v>
       </c>
       <c r="D16">
-        <v>2.735905037069347</v>
+        <v>5.991642901098184</v>
       </c>
       <c r="E16">
-        <v>6.647593961864806</v>
+        <v>11.45172773597139</v>
       </c>
       <c r="F16">
-        <v>49.83083528871682</v>
+        <v>48.37917190235579</v>
       </c>
       <c r="I16">
-        <v>29.21292064116863</v>
+        <v>31.32326150249403</v>
       </c>
       <c r="J16">
-        <v>5.931853549655894</v>
+        <v>9.930665705895949</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.59187294566473</v>
+        <v>19.59535973394294</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.50103358448467</v>
+        <v>18.52298325354569</v>
       </c>
       <c r="C17">
-        <v>23.36197924236376</v>
+        <v>16.1695726288313</v>
       </c>
       <c r="D17">
-        <v>2.720228591684613</v>
+        <v>5.992862266029611</v>
       </c>
       <c r="E17">
-        <v>6.630702382371892</v>
+        <v>11.45861209519101</v>
       </c>
       <c r="F17">
-        <v>48.99441066575336</v>
+        <v>48.22791631494084</v>
       </c>
       <c r="I17">
-        <v>28.83032026113291</v>
+        <v>31.26903528289897</v>
       </c>
       <c r="J17">
-        <v>5.932709658692435</v>
+        <v>9.937492956927546</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.16423768501796</v>
+        <v>19.54643336957701</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.15082607277147</v>
+        <v>18.42635609405398</v>
       </c>
       <c r="C18">
-        <v>23.03580193145677</v>
+        <v>16.07069966837092</v>
       </c>
       <c r="D18">
-        <v>2.711381052756766</v>
+        <v>5.993591613551974</v>
       </c>
       <c r="E18">
-        <v>6.621353624253599</v>
+        <v>11.46270379792853</v>
       </c>
       <c r="F18">
-        <v>48.51445380393323</v>
+        <v>48.1418995293949</v>
       </c>
       <c r="I18">
-        <v>28.6122814158951</v>
+        <v>31.238477827571</v>
       </c>
       <c r="J18">
-        <v>5.933533817489827</v>
+        <v>9.941522241404613</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.9156053536823</v>
+        <v>19.51870913882519</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.03159033633751</v>
+        <v>18.39361647727075</v>
       </c>
       <c r="C19">
-        <v>22.92483024905368</v>
+        <v>16.03716772240392</v>
       </c>
       <c r="D19">
-        <v>2.708413177551565</v>
+        <v>5.993843370533696</v>
       </c>
       <c r="E19">
-        <v>6.618250315818106</v>
+        <v>11.46411185881628</v>
       </c>
       <c r="F19">
-        <v>48.35213580564749</v>
+        <v>48.11294602146454</v>
       </c>
       <c r="I19">
-        <v>28.53879792996003</v>
+        <v>31.22824045998416</v>
       </c>
       <c r="J19">
-        <v>5.93386868259598</v>
+        <v>9.942904081347351</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.83095693816638</v>
+        <v>19.50939444626652</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.56553729725384</v>
+        <v>18.54085478268416</v>
       </c>
       <c r="C20">
-        <v>23.42209623559075</v>
+        <v>16.18784462344619</v>
       </c>
       <c r="D20">
-        <v>2.721879556997234</v>
+        <v>5.99272956531018</v>
       </c>
       <c r="E20">
-        <v>6.632462317838369</v>
+        <v>11.45786558397375</v>
       </c>
       <c r="F20">
-        <v>49.08333043897982</v>
+        <v>48.2439165717137</v>
       </c>
       <c r="I20">
-        <v>28.87083774167207</v>
+        <v>31.27474241846828</v>
       </c>
       <c r="J20">
-        <v>5.932583911144757</v>
+        <v>9.936755583489674</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.21003447704168</v>
+        <v>19.55159867014412</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.31500913141795</v>
+        <v>19.03339138430225</v>
       </c>
       <c r="C21">
-        <v>25.05723735618421</v>
+        <v>16.68970962904919</v>
       </c>
       <c r="D21">
-        <v>2.769248804778454</v>
+        <v>5.989321651157202</v>
       </c>
       <c r="E21">
-        <v>6.684672046188537</v>
+        <v>11.43845538975026</v>
       </c>
       <c r="F21">
-        <v>51.55426390288461</v>
+        <v>48.69555392428816</v>
       </c>
       <c r="I21">
-        <v>30.01117086546141</v>
+        <v>31.43850954757173</v>
       </c>
       <c r="J21">
-        <v>5.932321221056451</v>
+        <v>9.917321220822467</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.45239997340659</v>
+        <v>19.69833123662763</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42712785959643</v>
+        <v>19.35306377576029</v>
       </c>
       <c r="C22">
-        <v>26.10133303771246</v>
+        <v>17.01382421664821</v>
       </c>
       <c r="D22">
-        <v>2.802042587359412</v>
+        <v>5.987343035931833</v>
       </c>
       <c r="E22">
-        <v>6.722301292977466</v>
+        <v>11.42694304197184</v>
       </c>
       <c r="F22">
-        <v>53.18165987017461</v>
+        <v>48.99905977435387</v>
       </c>
       <c r="I22">
-        <v>30.77629022654387</v>
+        <v>31.55109171891145</v>
       </c>
       <c r="J22">
-        <v>5.935387703934658</v>
+        <v>9.905531661524719</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.24246551737608</v>
+        <v>19.79779122209799</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.83629756654995</v>
+        <v>19.18269091916525</v>
       </c>
       <c r="C23">
-        <v>25.54618951858847</v>
+        <v>16.84123125621267</v>
       </c>
       <c r="D23">
-        <v>2.784354363682528</v>
+        <v>5.988376340561181</v>
       </c>
       <c r="E23">
-        <v>6.701884377383381</v>
+        <v>11.432980142479</v>
       </c>
       <c r="F23">
-        <v>52.31179434060356</v>
+        <v>48.83633053885043</v>
       </c>
       <c r="I23">
-        <v>30.36601185296292</v>
+        <v>31.49050063726109</v>
       </c>
       <c r="J23">
-        <v>5.933439936862131</v>
+        <v>9.911740540189882</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.82269800035487</v>
+        <v>19.74438915839025</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.536387495873</v>
+        <v>18.53277568318602</v>
       </c>
       <c r="C24">
-        <v>23.39492731817946</v>
+        <v>16.17958505629766</v>
       </c>
       <c r="D24">
-        <v>2.72113264486853</v>
+        <v>5.992789471092077</v>
       </c>
       <c r="E24">
-        <v>6.631665524647541</v>
+        <v>11.45820266493632</v>
       </c>
       <c r="F24">
-        <v>49.04312698249173</v>
+        <v>48.23667991688513</v>
       </c>
       <c r="I24">
-        <v>28.85251381672046</v>
+        <v>31.27216029697548</v>
       </c>
       <c r="J24">
-        <v>5.93263973060777</v>
+        <v>9.937088625437219</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.1893384233707</v>
+        <v>19.54926217715524</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90950681759317</v>
+        <v>17.82624497785585</v>
       </c>
       <c r="C25">
-        <v>20.95692329231857</v>
+        <v>15.45330496409088</v>
       </c>
       <c r="D25">
-        <v>2.659276645417823</v>
+        <v>5.998620752132283</v>
       </c>
       <c r="E25">
-        <v>6.569840760332878</v>
+        <v>11.4904571035523</v>
       </c>
       <c r="F25">
-        <v>45.56061006182779</v>
+        <v>47.62758600426041</v>
       </c>
       <c r="I25">
-        <v>27.29679573945536</v>
+        <v>31.06083744745485</v>
       </c>
       <c r="J25">
-        <v>5.944335456638975</v>
+        <v>9.968346919989388</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.37072013542143</v>
+        <v>19.35480307913832</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_212/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30599947411286</v>
+        <v>20.83831150217405</v>
       </c>
       <c r="C2">
-        <v>14.91255542715784</v>
+        <v>19.04964428315377</v>
       </c>
       <c r="D2">
-        <v>6.003839878556669</v>
+        <v>2.617782393731064</v>
       </c>
       <c r="E2">
-        <v>11.5185608246296</v>
+        <v>6.535176522632624</v>
       </c>
       <c r="F2">
-        <v>47.21339889380268</v>
+        <v>43.02831529323029</v>
       </c>
       <c r="I2">
-        <v>30.92631245887682</v>
+        <v>26.21054848405239</v>
       </c>
       <c r="J2">
-        <v>9.994734767596626</v>
+        <v>5.962464812532812</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.22609602362527</v>
+        <v>15.29003788574886</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.95595404734549</v>
+        <v>19.34438193035545</v>
       </c>
       <c r="C3">
-        <v>14.54505901709167</v>
+        <v>17.68871933796323</v>
       </c>
       <c r="D3">
-        <v>6.007956793367978</v>
+        <v>2.591625751554311</v>
       </c>
       <c r="E3">
-        <v>11.54033031234061</v>
+        <v>6.51796948697452</v>
       </c>
       <c r="F3">
-        <v>46.95490457852213</v>
+        <v>41.33285475536292</v>
       </c>
       <c r="I3">
-        <v>30.84837308729013</v>
+        <v>25.50903995685016</v>
       </c>
       <c r="J3">
-        <v>10.01472407255188</v>
+        <v>5.980138926097973</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.14821252242034</v>
+        <v>14.54312571953018</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.74316502880957</v>
+        <v>18.38122567128044</v>
       </c>
       <c r="C4">
-        <v>14.31988694452889</v>
+        <v>16.85667729500086</v>
       </c>
       <c r="D4">
-        <v>6.010771525705295</v>
+        <v>2.576378827476459</v>
       </c>
       <c r="E4">
-        <v>11.55504241591286</v>
+        <v>6.510357643091481</v>
       </c>
       <c r="F4">
-        <v>46.80737778198909</v>
+        <v>40.30317121665485</v>
       </c>
       <c r="I4">
-        <v>30.80705852837144</v>
+        <v>25.09485124175434</v>
       </c>
       <c r="J4">
-        <v>10.02803715559503</v>
+        <v>5.993487403322932</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.10509357052726</v>
+        <v>14.0783241603546</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.65712767487063</v>
+        <v>17.97701794145715</v>
       </c>
       <c r="C5">
-        <v>14.22840015692857</v>
+        <v>16.50969041790773</v>
       </c>
       <c r="D5">
-        <v>6.01199084953917</v>
+        <v>2.570349692287044</v>
       </c>
       <c r="E5">
-        <v>11.56137640673837</v>
+        <v>6.507977920149862</v>
       </c>
       <c r="F5">
-        <v>46.75010596176755</v>
+        <v>39.88666681022622</v>
       </c>
       <c r="I5">
-        <v>30.79186855151262</v>
+        <v>24.93015827493046</v>
       </c>
       <c r="J5">
-        <v>10.03372386056413</v>
+        <v>5.999532741560517</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.08871772725796</v>
+        <v>13.88755296655489</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.64288610416648</v>
+        <v>17.90918726230281</v>
       </c>
       <c r="C6">
-        <v>14.21322989339755</v>
+        <v>16.45159643103354</v>
       </c>
       <c r="D6">
-        <v>6.012197688344611</v>
+        <v>2.5693591229181</v>
       </c>
       <c r="E6">
-        <v>11.5624486269367</v>
+        <v>6.507625804253135</v>
       </c>
       <c r="F6">
-        <v>46.74076880942176</v>
+        <v>39.81770216331216</v>
       </c>
       <c r="I6">
-        <v>30.78944569143547</v>
+        <v>24.90305642125489</v>
       </c>
       <c r="J6">
-        <v>10.03468393167074</v>
+        <v>6.000572535514834</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.08607108948752</v>
+        <v>13.85579999726355</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.74200177964925</v>
+        <v>18.3758220336915</v>
       </c>
       <c r="C7">
-        <v>14.31865181120753</v>
+        <v>16.85202973264128</v>
       </c>
       <c r="D7">
-        <v>6.010787676987773</v>
+        <v>2.576296796399071</v>
       </c>
       <c r="E7">
-        <v>11.55512646654179</v>
+        <v>6.510322651684388</v>
       </c>
       <c r="F7">
-        <v>46.8065938291146</v>
+        <v>40.29754116989587</v>
       </c>
       <c r="I7">
-        <v>30.80684700591408</v>
+        <v>25.0926136502068</v>
       </c>
       <c r="J7">
-        <v>10.0281127894854</v>
+        <v>5.993566508261856</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.10486786354643</v>
+        <v>14.07575656986627</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.18494178462178</v>
+        <v>20.33261332937504</v>
       </c>
       <c r="C8">
-        <v>14.78583557908057</v>
+        <v>18.58610112331743</v>
       </c>
       <c r="D8">
-        <v>6.005199924541205</v>
+        <v>2.608581766320119</v>
       </c>
       <c r="E8">
-        <v>11.52578788036115</v>
+        <v>6.52861793538726</v>
       </c>
       <c r="F8">
-        <v>47.12196869601311</v>
+        <v>42.44149790330848</v>
       </c>
       <c r="I8">
-        <v>30.89808278264799</v>
+        <v>25.96519271785267</v>
       </c>
       <c r="J8">
-        <v>10.00141138196097</v>
+        <v>5.968026917136772</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.19827428401733</v>
+        <v>15.03389212282103</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.06457266199407</v>
+        <v>23.8149648050001</v>
       </c>
       <c r="C9">
-        <v>15.69922619141917</v>
+        <v>21.79493919992964</v>
       </c>
       <c r="D9">
-        <v>5.996513010069912</v>
+        <v>2.679400061467628</v>
       </c>
       <c r="E9">
-        <v>11.47891655128442</v>
+        <v>6.588910758868378</v>
       </c>
       <c r="F9">
-        <v>47.82755166858742</v>
+        <v>46.72862958068347</v>
       </c>
       <c r="I9">
-        <v>31.12876371614923</v>
+        <v>27.81126999388622</v>
       </c>
       <c r="J9">
-        <v>9.957293919893145</v>
+        <v>5.938837988757204</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.41810355754414</v>
+        <v>16.96733989589215</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.70981898364645</v>
+        <v>26.17153112341103</v>
       </c>
       <c r="C10">
-        <v>16.36037258554958</v>
+        <v>23.98747392599922</v>
       </c>
       <c r="D10">
-        <v>5.991507554871696</v>
+        <v>2.737717774244812</v>
       </c>
       <c r="E10">
-        <v>11.45096006214995</v>
+        <v>6.649571884549744</v>
       </c>
       <c r="F10">
-        <v>48.39656286102616</v>
+        <v>49.92643693683132</v>
       </c>
       <c r="I10">
-        <v>31.32953448924824</v>
+        <v>29.25685750881929</v>
       </c>
       <c r="J10">
-        <v>9.929900547935738</v>
+        <v>5.93180172177005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.60099856501484</v>
+        <v>18.64031354137774</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.001593108003</v>
+        <v>27.20350990923895</v>
       </c>
       <c r="C11">
-        <v>16.65740348452559</v>
+        <v>24.95275780771064</v>
       </c>
       <c r="D11">
-        <v>5.989527976062408</v>
+        <v>2.766077967371904</v>
       </c>
       <c r="E11">
-        <v>11.43964472229577</v>
+        <v>6.681088517487163</v>
       </c>
       <c r="F11">
-        <v>48.66579617806121</v>
+        <v>51.39346880828246</v>
       </c>
       <c r="I11">
-        <v>31.42757284444667</v>
+        <v>29.93615475463398</v>
       </c>
       <c r="J11">
-        <v>9.918527386380942</v>
+        <v>5.932154232656371</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.68861316026597</v>
+        <v>19.37320351523231</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.11170809485695</v>
+        <v>27.58889933511525</v>
       </c>
       <c r="C12">
-        <v>16.7692249816392</v>
+        <v>25.31403857786038</v>
       </c>
       <c r="D12">
-        <v>5.988821019680985</v>
+        <v>2.777127439057543</v>
       </c>
       <c r="E12">
-        <v>11.43556117523558</v>
+        <v>6.693621567802187</v>
       </c>
       <c r="F12">
-        <v>48.76918395575381</v>
+        <v>51.95109983093127</v>
       </c>
       <c r="I12">
-        <v>31.46565123484238</v>
+        <v>30.19676497045587</v>
       </c>
       <c r="J12">
-        <v>9.914377070873231</v>
+        <v>5.932839361550233</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.72240384149362</v>
+        <v>19.64695128113788</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.08801133884704</v>
+        <v>27.5061326763879</v>
       </c>
       <c r="C13">
-        <v>16.74517330884041</v>
+        <v>25.23641288280822</v>
       </c>
       <c r="D13">
-        <v>5.98897137932624</v>
+        <v>2.774733115108802</v>
       </c>
       <c r="E13">
-        <v>11.4364316911143</v>
+        <v>6.690895142097436</v>
       </c>
       <c r="F13">
-        <v>48.74685469515271</v>
+        <v>51.83090381964136</v>
       </c>
       <c r="I13">
-        <v>31.45740816207829</v>
+        <v>30.14048294804103</v>
       </c>
       <c r="J13">
-        <v>9.915263957717478</v>
+        <v>5.932666569108879</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.71509951321259</v>
+        <v>19.58815836473203</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.01066049279162</v>
+        <v>27.2353220908471</v>
       </c>
       <c r="C14">
-        <v>16.6666169504689</v>
+        <v>24.98256347899585</v>
       </c>
       <c r="D14">
-        <v>5.989468959786437</v>
+        <v>2.766980502956749</v>
       </c>
       <c r="E14">
-        <v>11.43930473333627</v>
+        <v>6.682107413621504</v>
       </c>
       <c r="F14">
-        <v>48.67427354125821</v>
+        <v>51.43930097327471</v>
       </c>
       <c r="I14">
-        <v>31.4306865379181</v>
+        <v>29.95752595287127</v>
       </c>
       <c r="J14">
-        <v>9.918182802027713</v>
+        <v>5.932199291518175</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.69138098503826</v>
+        <v>19.39579904580421</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.96322872728169</v>
+        <v>27.06875123278857</v>
       </c>
       <c r="C15">
-        <v>16.6184098151068</v>
+        <v>24.82653166079966</v>
       </c>
       <c r="D15">
-        <v>5.98977929577261</v>
+        <v>2.762273710406136</v>
       </c>
       <c r="E15">
-        <v>11.44109076400672</v>
+        <v>6.676803700151567</v>
       </c>
       <c r="F15">
-        <v>48.63000056772486</v>
+        <v>51.19971848407796</v>
       </c>
       <c r="I15">
-        <v>31.41444257713609</v>
+        <v>29.84590784534599</v>
       </c>
       <c r="J15">
-        <v>9.919991052480723</v>
+        <v>5.931986205204335</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.67693185572226</v>
+        <v>19.27748943265766</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.69070505486488</v>
+        <v>26.10331280265899</v>
       </c>
       <c r="C16">
-        <v>16.34087529875226</v>
+        <v>23.92377414152718</v>
       </c>
       <c r="D16">
-        <v>5.991642901098184</v>
+        <v>2.735905037069345</v>
       </c>
       <c r="E16">
-        <v>11.45172773597139</v>
+        <v>6.647593961864813</v>
       </c>
       <c r="F16">
-        <v>48.37917190235579</v>
+        <v>49.83083528871685</v>
       </c>
       <c r="I16">
-        <v>31.32326150249403</v>
+        <v>29.21292064116863</v>
       </c>
       <c r="J16">
-        <v>9.930665705895949</v>
+        <v>5.93185354965594</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.59535973394294</v>
+        <v>18.59187294566476</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52298325354569</v>
+        <v>25.50103358448471</v>
       </c>
       <c r="C17">
-        <v>16.1695726288313</v>
+        <v>23.36197924236393</v>
       </c>
       <c r="D17">
-        <v>5.992862266029611</v>
+        <v>2.720228591684745</v>
       </c>
       <c r="E17">
-        <v>11.45861209519101</v>
+        <v>6.630702382371793</v>
       </c>
       <c r="F17">
-        <v>48.22791631494084</v>
+        <v>48.99441066575341</v>
       </c>
       <c r="I17">
-        <v>31.26903528289897</v>
+        <v>28.83032026113294</v>
       </c>
       <c r="J17">
-        <v>9.937492956927546</v>
+        <v>5.932709658692372</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.54643336957701</v>
+        <v>18.16423768501802</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.42635609405398</v>
+        <v>25.15082607277144</v>
       </c>
       <c r="C18">
-        <v>16.07069966837092</v>
+        <v>23.03580193145666</v>
       </c>
       <c r="D18">
-        <v>5.993591613551974</v>
+        <v>2.7113810527569</v>
       </c>
       <c r="E18">
-        <v>11.46270379792853</v>
+        <v>6.62135362425354</v>
       </c>
       <c r="F18">
-        <v>48.1418995293949</v>
+        <v>48.51445380393328</v>
       </c>
       <c r="I18">
-        <v>31.238477827571</v>
+        <v>28.61228141589514</v>
       </c>
       <c r="J18">
-        <v>9.941522241404613</v>
+        <v>5.93353381748972</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.51870913882519</v>
+        <v>17.91560535368227</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.39361647727075</v>
+        <v>25.03159033633754</v>
       </c>
       <c r="C19">
-        <v>16.03716772240392</v>
+        <v>22.92483024905363</v>
       </c>
       <c r="D19">
-        <v>5.993843370533696</v>
+        <v>2.708413177551631</v>
       </c>
       <c r="E19">
-        <v>11.46411185881628</v>
+        <v>6.618250315818059</v>
       </c>
       <c r="F19">
-        <v>48.11294602146454</v>
+        <v>48.35213580564749</v>
       </c>
       <c r="I19">
-        <v>31.22824045998416</v>
+        <v>28.53879792995999</v>
       </c>
       <c r="J19">
-        <v>9.942904081347351</v>
+        <v>5.933868682595953</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.50939444626652</v>
+        <v>17.83095693816637</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.54085478268416</v>
+        <v>25.56553729725383</v>
       </c>
       <c r="C20">
-        <v>16.18784462344619</v>
+        <v>23.42209623559075</v>
       </c>
       <c r="D20">
-        <v>5.99272956531018</v>
+        <v>2.721879556997162</v>
       </c>
       <c r="E20">
-        <v>11.45786558397375</v>
+        <v>6.632462317838407</v>
       </c>
       <c r="F20">
-        <v>48.2439165717137</v>
+        <v>49.08333043897984</v>
       </c>
       <c r="I20">
-        <v>31.27474241846828</v>
+        <v>28.8708377416721</v>
       </c>
       <c r="J20">
-        <v>9.936755583489674</v>
+        <v>5.932583911144818</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.55159867014412</v>
+        <v>18.2100344770417</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.03339138430225</v>
+        <v>27.31500913141801</v>
       </c>
       <c r="C21">
-        <v>16.68970962904919</v>
+        <v>25.05723735618428</v>
       </c>
       <c r="D21">
-        <v>5.989321651157202</v>
+        <v>2.769248804778317</v>
       </c>
       <c r="E21">
-        <v>11.43845538975026</v>
+        <v>6.684672046188444</v>
       </c>
       <c r="F21">
-        <v>48.69555392428816</v>
+        <v>51.55426390288471</v>
       </c>
       <c r="I21">
-        <v>31.43850954757173</v>
+        <v>30.01117086546146</v>
       </c>
       <c r="J21">
-        <v>9.917321220822467</v>
+        <v>5.932321221056382</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.69833123662763</v>
+        <v>19.45239997340663</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.35306377576029</v>
+        <v>28.42712785959645</v>
       </c>
       <c r="C22">
-        <v>17.01382421664821</v>
+        <v>26.10133303771251</v>
       </c>
       <c r="D22">
-        <v>5.987343035931833</v>
+        <v>2.802042587359476</v>
       </c>
       <c r="E22">
-        <v>11.42694304197184</v>
+        <v>6.722301292977409</v>
       </c>
       <c r="F22">
-        <v>48.99905977435387</v>
+        <v>53.18165987017461</v>
       </c>
       <c r="I22">
-        <v>31.55109171891145</v>
+        <v>30.77629022654383</v>
       </c>
       <c r="J22">
-        <v>9.905531661524719</v>
+        <v>5.935387703934615</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.79779122209799</v>
+        <v>20.2424655173761</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.18269091916525</v>
+        <v>27.83629756655001</v>
       </c>
       <c r="C23">
-        <v>16.84123125621267</v>
+        <v>25.5461895185884</v>
       </c>
       <c r="D23">
-        <v>5.988376340561181</v>
+        <v>2.784354363682594</v>
       </c>
       <c r="E23">
-        <v>11.432980142479</v>
+        <v>6.701884377383341</v>
       </c>
       <c r="F23">
-        <v>48.83633053885043</v>
+        <v>52.31179434060359</v>
       </c>
       <c r="I23">
-        <v>31.49050063726109</v>
+        <v>30.36601185296292</v>
       </c>
       <c r="J23">
-        <v>9.911740540189882</v>
+        <v>5.933439936862087</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.74438915839025</v>
+        <v>19.82269800035491</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.53277568318602</v>
+        <v>25.53638749587295</v>
       </c>
       <c r="C24">
-        <v>16.17958505629766</v>
+        <v>23.39492731817926</v>
       </c>
       <c r="D24">
-        <v>5.992789471092077</v>
+        <v>2.721132644868662</v>
       </c>
       <c r="E24">
-        <v>11.45820266493632</v>
+        <v>6.631665524647487</v>
       </c>
       <c r="F24">
-        <v>48.23667991688513</v>
+        <v>49.0431269824917</v>
       </c>
       <c r="I24">
-        <v>31.27216029697548</v>
+        <v>28.85251381672046</v>
       </c>
       <c r="J24">
-        <v>9.937088625437219</v>
+        <v>5.932639730607744</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.54926217715524</v>
+        <v>18.18933842337061</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.82624497785585</v>
+        <v>22.90950681759309</v>
       </c>
       <c r="C25">
-        <v>15.45330496409088</v>
+        <v>20.95692329231852</v>
       </c>
       <c r="D25">
-        <v>5.998620752132283</v>
+        <v>2.659276645417689</v>
       </c>
       <c r="E25">
-        <v>11.4904571035523</v>
+        <v>6.569840760332814</v>
       </c>
       <c r="F25">
-        <v>47.62758600426041</v>
+        <v>45.56061006182775</v>
       </c>
       <c r="I25">
-        <v>31.06083744745485</v>
+        <v>27.29679573945537</v>
       </c>
       <c r="J25">
-        <v>9.968346919989388</v>
+        <v>5.944335456638965</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.35480307913832</v>
+        <v>16.37072013542143</v>
       </c>
       <c r="N25">
         <v>0</v>
